--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H2">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J2">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1086062484086</v>
+        <v>22.84733166666667</v>
       </c>
       <c r="N2">
-        <v>18.1086062484086</v>
+        <v>68.541995</v>
       </c>
       <c r="O2">
-        <v>0.8009680250369239</v>
+        <v>0.8188848782804395</v>
       </c>
       <c r="P2">
-        <v>0.8009680250369239</v>
+        <v>0.8188848782804397</v>
       </c>
       <c r="Q2">
-        <v>213.1060585061896</v>
+        <v>378.8142043140472</v>
       </c>
       <c r="R2">
-        <v>213.1060585061896</v>
+        <v>3409.327838826425</v>
       </c>
       <c r="S2">
-        <v>0.446733352789123</v>
+        <v>0.5203278520131752</v>
       </c>
       <c r="T2">
-        <v>0.446733352789123</v>
+        <v>0.5203278520131752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.768219794658</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H3">
-        <v>11.768219794658</v>
+        <v>49.740715</v>
       </c>
       <c r="I3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J3">
-        <v>0.5577418059460352</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.49979468941137</v>
+        <v>0.041337</v>
       </c>
       <c r="N3">
-        <v>4.49979468941137</v>
+        <v>0.124011</v>
       </c>
       <c r="O3">
-        <v>0.1990319749630761</v>
+        <v>0.00148158413889814</v>
       </c>
       <c r="P3">
-        <v>0.1990319749630761</v>
+        <v>0.00148158413889814</v>
       </c>
       <c r="Q3">
-        <v>52.95457293582783</v>
+        <v>0.685377311985</v>
       </c>
       <c r="R3">
-        <v>52.95457293582783</v>
+        <v>6.168395807865</v>
       </c>
       <c r="S3">
-        <v>0.1110084531569121</v>
+        <v>0.0009414137603669965</v>
       </c>
       <c r="T3">
-        <v>0.1110084531569121</v>
+        <v>0.0009414137603669965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.538291985823919</v>
+        <v>16.58023833333333</v>
       </c>
       <c r="H4">
-        <v>8.538291985823919</v>
+        <v>49.740715</v>
       </c>
       <c r="I4">
-        <v>0.4046629375523476</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="J4">
-        <v>0.4046629375523476</v>
+        <v>0.63541025828417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.1086062484086</v>
+        <v>5.011873</v>
       </c>
       <c r="N4">
-        <v>18.1086062484086</v>
+        <v>15.035619</v>
       </c>
       <c r="O4">
-        <v>0.8009680250369239</v>
+        <v>0.1796335375806623</v>
       </c>
       <c r="P4">
-        <v>0.8009680250369239</v>
+        <v>0.1796335375806623</v>
       </c>
       <c r="Q4">
-        <v>154.6165676052281</v>
+        <v>83.09804883639835</v>
       </c>
       <c r="R4">
-        <v>154.6165676052281</v>
+        <v>747.882439527585</v>
       </c>
       <c r="S4">
-        <v>0.3241220738969439</v>
+        <v>0.1141409925106278</v>
       </c>
       <c r="T4">
-        <v>0.3241220738969439</v>
+        <v>0.1141409925106278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.538291985823919</v>
+        <v>8.574149</v>
       </c>
       <c r="H5">
-        <v>8.538291985823919</v>
+        <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J5">
-        <v>0.4046629375523476</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.49979468941137</v>
+        <v>22.84733166666667</v>
       </c>
       <c r="N5">
-        <v>4.49979468941137</v>
+        <v>68.541995</v>
       </c>
       <c r="O5">
-        <v>0.1990319749630761</v>
+        <v>0.8188848782804395</v>
       </c>
       <c r="P5">
-        <v>0.1990319749630761</v>
+        <v>0.8188848782804397</v>
       </c>
       <c r="Q5">
-        <v>38.42056093445414</v>
+        <v>195.8964259624183</v>
       </c>
       <c r="R5">
-        <v>38.42056093445414</v>
+        <v>1763.067833661765</v>
       </c>
       <c r="S5">
-        <v>0.08054086365540368</v>
+        <v>0.2690774669409706</v>
       </c>
       <c r="T5">
-        <v>0.08054086365540368</v>
+        <v>0.2690774669409707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.793250993615465</v>
+        <v>8.574149</v>
       </c>
       <c r="H6">
-        <v>0.793250993615465</v>
+        <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J6">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.1086062484086</v>
+        <v>0.041337</v>
       </c>
       <c r="N6">
-        <v>18.1086062484086</v>
+        <v>0.124011</v>
       </c>
       <c r="O6">
-        <v>0.8009680250369239</v>
+        <v>0.00148158413889814</v>
       </c>
       <c r="P6">
-        <v>0.8009680250369239</v>
+        <v>0.00148158413889814</v>
       </c>
       <c r="Q6">
-        <v>14.36466989954134</v>
+        <v>0.354429597213</v>
       </c>
       <c r="R6">
-        <v>14.36466989954134</v>
+        <v>3.189866374917</v>
       </c>
       <c r="S6">
-        <v>0.03011259835085689</v>
+        <v>0.0004868338856027858</v>
       </c>
       <c r="T6">
-        <v>0.03011259835085689</v>
+        <v>0.0004868338856027858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.793250993615465</v>
+        <v>8.574149</v>
       </c>
       <c r="H7">
-        <v>0.793250993615465</v>
+        <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="J7">
-        <v>0.03759525650161719</v>
+        <v>0.3285901035393414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.49979468941137</v>
+        <v>5.011873</v>
       </c>
       <c r="N7">
-        <v>4.49979468941137</v>
+        <v>15.035619</v>
       </c>
       <c r="O7">
-        <v>0.1990319749630761</v>
+        <v>0.1796335375806623</v>
       </c>
       <c r="P7">
-        <v>0.1990319749630761</v>
+        <v>0.1796335375806623</v>
       </c>
       <c r="Q7">
-        <v>3.569466608441162</v>
+        <v>42.972545871077</v>
       </c>
       <c r="R7">
-        <v>3.569466608441162</v>
+        <v>386.752912839693</v>
       </c>
       <c r="S7">
-        <v>0.007482658150760295</v>
+        <v>0.059025802712768</v>
       </c>
       <c r="T7">
-        <v>0.007482658150760295</v>
+        <v>0.059025802712768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.818097</v>
+      </c>
+      <c r="I8">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J8">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.84733166666667</v>
+      </c>
+      <c r="N8">
+        <v>68.541995</v>
+      </c>
+      <c r="O8">
+        <v>0.8188848782804395</v>
+      </c>
+      <c r="P8">
+        <v>0.8188848782804397</v>
+      </c>
+      <c r="Q8">
+        <v>21.46199894261278</v>
+      </c>
+      <c r="R8">
+        <v>193.157990483515</v>
+      </c>
+      <c r="S8">
+        <v>0.02947955932629382</v>
+      </c>
+      <c r="T8">
+        <v>0.02947955932629383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.818097</v>
+      </c>
+      <c r="I9">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J9">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.041337</v>
+      </c>
+      <c r="N9">
+        <v>0.124011</v>
+      </c>
+      <c r="O9">
+        <v>0.00148158413889814</v>
+      </c>
+      <c r="P9">
+        <v>0.00148158413889814</v>
+      </c>
+      <c r="Q9">
+        <v>0.038830558563</v>
+      </c>
+      <c r="R9">
+        <v>0.349475027067</v>
+      </c>
+      <c r="S9">
+        <v>5.333649292835762E-05</v>
+      </c>
+      <c r="T9">
+        <v>5.333649292835763E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9393656666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.818097</v>
+      </c>
+      <c r="I10">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="J10">
+        <v>0.03599963817648871</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.011873</v>
+      </c>
+      <c r="N10">
+        <v>15.035619</v>
+      </c>
+      <c r="O10">
+        <v>0.1796335375806623</v>
+      </c>
+      <c r="P10">
+        <v>0.1796335375806623</v>
+      </c>
+      <c r="Q10">
+        <v>4.707981421893668</v>
+      </c>
+      <c r="R10">
+        <v>42.37183279704301</v>
+      </c>
+      <c r="S10">
+        <v>0.006466742357266528</v>
+      </c>
+      <c r="T10">
+        <v>0.00646674235726653</v>
       </c>
     </row>
   </sheetData>
